--- a/reports/carbon_wy_report/county_report.xlsx
+++ b/reports/carbon_wy_report/county_report.xlsx
@@ -350,7 +350,7 @@
     <t>213112</t>
   </si>
   <si>
-    <t>Time to Generate Report: 0m, 6s</t>
+    <t>Time to Generate Report: 0m, 7s</t>
   </si>
 </sst>
 </file>
